--- a/tutorials/data/StratiLib_Template_FULL.xlsx
+++ b/tutorials/data/StratiLib_Template_FULL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1201,12 +1201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1223,6 +1217,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1553,52 +1553,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
         <v>1258</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1825,7 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1850,58 +1850,58 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="19"/>
+      <c r="E2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="19"/>
+      <c r="K2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="N2" s="7" t="s">
+      <c r="L2" s="19"/>
+      <c r="N2" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="8"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="8" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       <c r="F4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="1" t="s">
         <v>79</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="F5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="3" t="s">
         <v>80</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="F6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="3" t="s">
         <v>81</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="F7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="3" t="s">
         <v>82</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="3" t="s">
         <v>83</v>
       </c>
@@ -2059,10 +2059,10 @@
       </c>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>173</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2071,7 +2071,7 @@
       <c r="F9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="3" t="s">
         <v>84</v>
       </c>
@@ -2086,10 +2086,10 @@
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -2098,7 +2098,7 @@
       <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="3" t="s">
         <v>85</v>
       </c>
@@ -2113,10 +2113,10 @@
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>175</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2125,7 +2125,7 @@
       <c r="F11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="3" t="s">
         <v>86</v>
       </c>
@@ -2140,10 +2140,10 @@
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>176</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -2152,7 +2152,7 @@
       <c r="F12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="3" t="s">
         <v>87</v>
       </c>
@@ -2167,10 +2167,10 @@
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>177</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2179,7 +2179,7 @@
       <c r="F13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="3" t="s">
         <v>88</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="F14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="3" t="s">
         <v>89</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="F15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="3" t="s">
         <v>90</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="F16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="3" t="s">
         <v>91</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="3" t="s">
         <v>92</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="F18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="3" t="s">
         <v>93</v>
       </c>
@@ -2341,7 +2341,7 @@
       <c r="F19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="3" t="s">
         <v>94</v>
       </c>
@@ -2356,10 +2356,10 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>184</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -2368,7 +2368,7 @@
       <c r="F20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="3" t="s">
         <v>95</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="F21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="3" t="s">
         <v>96</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="F22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="3" t="s">
         <v>97</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="F23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="3" t="s">
         <v>98</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="F24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="3" t="s">
         <v>99</v>
       </c>
@@ -2585,55 +2585,55 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="13" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="13" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="60">
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="17" t="s">
         <v>234</v>
       </c>
     </row>
